--- a/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.6</t>
   </si>
@@ -23,7 +23,7 @@
     <t>「px2-include-php-code」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2017-03-30 15:59:03</t>
+    <t>Exported: 2017-05-22 20:39:13</t>
   </si>
   <si>
     <t>ページID</t>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>IncTest</t>
+  </si>
+  <si>
+    <t>/include_test/</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -218,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -226,6 +232,20 @@
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFdddddd"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -266,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -289,6 +309,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -596,7 +619,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -771,13 +794,13 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="4"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -791,35 +814,63 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="12" spans="1:20" customHeight="1" ht="5">
-      <c r="A12" s="9" t="s">
+    <row r="10" spans="1:20">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="13" spans="1:20" customHeight="1" ht="5">
+      <c r="A13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.9</t>
   </si>
   <si>
     <t>「px2-include-php-code」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2017-05-22 20:39:13</t>
+    <t>Exported: 2019-03-05 17:35:17</t>
   </si>
   <si>
     <t>ページID</t>
@@ -71,6 +71,9 @@
     <t>ロール</t>
   </si>
   <si>
+    <t>コンテンツの処理方法</t>
+  </si>
+  <si>
     <t>削除フラグ</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
     <t>role</t>
   </si>
   <si>
+    <t>proc_type</t>
+  </si>
+  <si>
     <t>**delete_flg</t>
   </si>
   <si>
@@ -132,6 +138,15 @@
   </si>
   <si>
     <t>/include_test/</t>
+  </si>
+  <si>
+    <t>IncTest 2</t>
+  </si>
+  <si>
+    <t>/include_test/virtual/directory/</t>
+  </si>
+  <si>
+    <t>/index.html</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -619,7 +634,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -650,7 +665,7 @@
     <col min="18" max="18" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" customHeight="1" ht="10">
+    <row r="1" spans="1:21" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,18 +688,19 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,65 +753,71 @@
       <c r="T7" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="U7" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -806,7 +828,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4">
@@ -819,12 +841,13 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -834,7 +857,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4">
@@ -847,30 +870,63 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
     </row>
-    <row r="13" spans="1:20" customHeight="1" ht="5">
-      <c r="A13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
+    <row r="11" spans="1:21">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="14" spans="1:21" customHeight="1" ht="5">
+      <c r="A14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
